--- a/Test App.xlsx
+++ b/Test App.xlsx
@@ -156,15 +156,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="table2" displayName="table2" ref="A1:F2" headerRowCount="1">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Dashboard Name"/>
-    <tableColumn id="2" name="Connection Name"/>
-    <tableColumn id="3" name="Connection ID"/>
-    <tableColumn id="4" name="Data Source"/>
-    <tableColumn id="5" name="Data Source Type"/>
-    <tableColumn id="6" name="Table Name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="table2" displayName="table2" ref="A1:A1" headerRowCount="1">
+  <autoFilter ref="A1:A1"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="None"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,87 +554,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="20.4" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="15.6" customWidth="1" min="4" max="4"/>
-    <col width="21.6" customWidth="1" min="5" max="5"/>
-    <col width="14.4" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Dashboard Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Connection Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Connection ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Data Source</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Data Source Type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Table Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Test App</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>DataFiles</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Literacy</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1205,8 +1127,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19.2" customWidth="1" min="1" max="1"/>
-    <col width="20.4" customWidth="1" min="2" max="2"/>
-    <col width="546" customWidth="1" min="3" max="3"/>
+    <col width="14.4" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1234,32 +1156,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>[LiteracyRate]:</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">LOAD
-	[State Code],
-	[State Name],
-	[District Code],
-	[Name of Urban Agglomeration/City],
-	[Level],
-	[Population],
-	[Population(Male)],
-	[Population(Female)],
-	[0-6 Population],
-	[Literates],
-	[Literates(Male)],
-	[Literates(Female)],
-	[Sex Ratio],
-	[Child Sex Ratio (0-6 Years],
-	[Effective Literacy Rate (7+ Pop)],
-	[Literacy Rate(Male)],
-	[Literacy Rate (Female)]
- FROM [lib://DataFiles/Literacy.xlsx]
-(ooxml, embedded labels, table is LiteracyRate);
-</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
